--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B572D8A-D75D-4A23-9E93-EF3148C053E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F855DFA-4E3B-4EB2-9BC5-81EB926198FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,12 +1512,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>INSERT INTO Personnel
-VALUES
-(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.userId, data.password, data.address1, data.address, data.area1, data.area2, data.note);</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>CreateUserId</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -2425,6 +2419,12 @@
     <rPh sb="98" eb="100">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>INSERT INTO Personnel
+VALUES
+(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.userId, data.password, data.address1, data.address,2 data.area1, data.area2, data.note);</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -8814,9 +8814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A41:AF89"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:AF46"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8858,7 +8856,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -10562,7 +10560,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -10607,7 +10605,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -10615,13 +10613,13 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
@@ -10632,7 +10630,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
       <c r="U84" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="V84" s="35"/>
       <c r="W84" s="35"/>
@@ -11357,7 +11355,7 @@
       <c r="BB6" s="35"/>
       <c r="BC6" s="35"/>
       <c r="BD6" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE6" s="40"/>
       <c r="BF6" s="40"/>
@@ -11798,7 +11796,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="44"/>
       <c r="M12" s="35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -11849,7 +11847,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
@@ -11900,7 +11898,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
       <c r="M13" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -11951,7 +11949,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
@@ -12002,7 +12000,7 @@
       <c r="K14" s="43"/>
       <c r="L14" s="44"/>
       <c r="M14" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -12035,7 +12033,7 @@
       <c r="AL14" s="35"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
@@ -12053,7 +12051,7 @@
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
@@ -12115,7 +12113,7 @@
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -12137,7 +12135,7 @@
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AO15" s="35"/>
       <c r="AP15" s="35"/>
@@ -12155,7 +12153,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BE15" s="40"/>
       <c r="BF15" s="40"/>
@@ -12239,7 +12237,7 @@
       <c r="AL16" s="35"/>
       <c r="AM16" s="35"/>
       <c r="AN16" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AO16" s="35"/>
       <c r="AP16" s="35"/>
@@ -12257,7 +12255,7 @@
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE16" s="40"/>
       <c r="BF16" s="40"/>
@@ -12300,7 +12298,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
       <c r="G17" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
@@ -12308,7 +12306,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="44"/>
       <c r="M17" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -12341,7 +12339,7 @@
       <c r="AL17" s="35"/>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AO17" s="35"/>
       <c r="AP17" s="35"/>
@@ -12359,7 +12357,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BE17" s="40"/>
       <c r="BF17" s="40"/>
@@ -12396,13 +12394,13 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="G18" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -12410,7 +12408,7 @@
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
       <c r="M18" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -12443,7 +12441,7 @@
       <c r="AL18" s="35"/>
       <c r="AM18" s="35"/>
       <c r="AN18" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AO18" s="35"/>
       <c r="AP18" s="35"/>
@@ -12461,7 +12459,7 @@
       <c r="BB18" s="35"/>
       <c r="BC18" s="35"/>
       <c r="BD18" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BE18" s="40"/>
       <c r="BF18" s="40"/>
@@ -13050,7 +13048,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="44"/>
       <c r="M27" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
@@ -13099,7 +13097,7 @@
       <c r="BB27" s="35"/>
       <c r="BC27" s="35"/>
       <c r="BD27" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BE27" s="40"/>
       <c r="BF27" s="40"/>
@@ -13178,7 +13176,7 @@
       <c r="AI28" s="35"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="35"/>
@@ -13199,7 +13197,7 @@
       <c r="BB28" s="35"/>
       <c r="BC28" s="35"/>
       <c r="BD28" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BE28" s="40"/>
       <c r="BF28" s="40"/>
@@ -13746,7 +13744,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="51" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
@@ -13778,7 +13776,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -13790,7 +13788,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -14002,7 +14000,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -14019,73 +14017,73 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>227</v>
-      </c>
       <c r="M2" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="C3" s="20">
         <v>40</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>104</v>
@@ -14094,7 +14092,7 @@
         <v>111</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F855DFA-4E3B-4EB2-9BC5-81EB926198FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879415F6-097E-44CE-AEFA-40C45A9BBE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="243">
   <si>
     <t>作成日</t>
   </si>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>UserId_Label</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Password_Label</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -551,10 +547,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>UserId_Text</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Password_Text</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -571,25 +563,6 @@
   </si>
   <si>
     <t>入力制限なし。半角20文字分</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>入力制限なし。半角20文字分</t>
     <rPh sb="0" eb="4">
       <t>ニュウリョクセイゲン</t>
     </rPh>
@@ -1477,15 +1450,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>CreateUserId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>string authority</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>string userId</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1509,10 +1474,6 @@
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CreateUserId</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -1692,35 +1653,6 @@
     <t>担当地域２</t>
     <rPh sb="0" eb="4">
       <t>タントウチイキ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>下記のルールで人員IDを取得する。
-システム管理者："SYS" +  (count(*) + 1)  "SYS00001"
-店舗責任者："STR" + (count(*) + 1)         "STR00001"
-配達人員："USR" + (count(*) + 1)            "USR00001"
-権限文字3文字 + カウント（左0埋め　4文字）</t>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>モジ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -2422,9 +2354,73 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>入力制限なし。半角10文字分</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>下記のルールで人員IDを取得する。
+システム管理者："SYS" +  (count(*) + 1)  "SYS0000001"
+店舗責任者："STR" + (count(*) + 1)         "STR0000001"
+配達人員："USR" + (count(*) + 1)            "USR0000001"
+権限文字3文字 + カウント（左0埋め　4文字）</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>string PersonnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CreatePersonnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
     <t>INSERT INTO Personnel
 VALUES
-(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.userId, data.password, data.address1, data.address,2 data.area1, data.area2, data.note);</t>
+(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.personnelId, data.password, data.address1, data.address,2 data.area1, data.area2, data.note);</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -6067,7 +6063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8856,7 +8852,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -9083,13 +9079,13 @@
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M50" s="35"/>
       <c r="N50" s="35"/>
@@ -9100,7 +9096,7 @@
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
@@ -9128,13 +9124,13 @@
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
       <c r="H51" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I51" s="35"/>
       <c r="J51" s="35"/>
       <c r="K51" s="35"/>
       <c r="L51" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M51" s="35"/>
       <c r="N51" s="35"/>
@@ -9145,7 +9141,7 @@
       <c r="S51" s="35"/>
       <c r="T51" s="35"/>
       <c r="U51" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
@@ -9173,13 +9169,13 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I52" s="35"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M52" s="35"/>
       <c r="N52" s="35"/>
@@ -9190,7 +9186,7 @@
       <c r="S52" s="35"/>
       <c r="T52" s="35"/>
       <c r="U52" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
@@ -9218,13 +9214,13 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M53" s="35"/>
       <c r="N53" s="35"/>
@@ -9235,7 +9231,7 @@
       <c r="S53" s="35"/>
       <c r="T53" s="35"/>
       <c r="U53" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V53" s="35"/>
       <c r="W53" s="35"/>
@@ -9263,13 +9259,13 @@
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
       <c r="H54" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
       <c r="K54" s="35"/>
       <c r="L54" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M54" s="35"/>
       <c r="N54" s="35"/>
@@ -9280,7 +9276,7 @@
       <c r="S54" s="35"/>
       <c r="T54" s="35"/>
       <c r="U54" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
@@ -9308,13 +9304,13 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I55" s="35"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M55" s="35"/>
       <c r="N55" s="35"/>
@@ -9325,7 +9321,7 @@
       <c r="S55" s="35"/>
       <c r="T55" s="35"/>
       <c r="U55" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V55" s="35"/>
       <c r="W55" s="35"/>
@@ -9353,13 +9349,13 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M56" s="35"/>
       <c r="N56" s="35"/>
@@ -9370,7 +9366,7 @@
       <c r="S56" s="35"/>
       <c r="T56" s="35"/>
       <c r="U56" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V56" s="35"/>
       <c r="W56" s="35"/>
@@ -9390,7 +9386,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -9398,13 +9394,13 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M57" s="35"/>
       <c r="N57" s="35"/>
@@ -9415,7 +9411,7 @@
       <c r="S57" s="35"/>
       <c r="T57" s="35"/>
       <c r="U57" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V57" s="35"/>
       <c r="W57" s="35"/>
@@ -9435,7 +9431,7 @@
         <v>9</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
@@ -9443,13 +9439,13 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I58" s="35"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M58" s="35"/>
       <c r="N58" s="35"/>
@@ -9460,7 +9456,7 @@
       <c r="S58" s="35"/>
       <c r="T58" s="35"/>
       <c r="U58" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V58" s="35"/>
       <c r="W58" s="35"/>
@@ -9480,7 +9476,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
@@ -9488,13 +9484,13 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I59" s="35"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M59" s="35"/>
       <c r="N59" s="35"/>
@@ -9505,7 +9501,7 @@
       <c r="S59" s="35"/>
       <c r="T59" s="35"/>
       <c r="U59" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V59" s="35"/>
       <c r="W59" s="35"/>
@@ -9525,7 +9521,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
@@ -9533,13 +9529,13 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -9550,7 +9546,7 @@
       <c r="S60" s="35"/>
       <c r="T60" s="35"/>
       <c r="U60" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V60" s="35"/>
       <c r="W60" s="35"/>
@@ -9570,7 +9566,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
@@ -9578,13 +9574,13 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -9595,7 +9591,7 @@
       <c r="S61" s="35"/>
       <c r="T61" s="35"/>
       <c r="U61" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V61" s="35"/>
       <c r="W61" s="35"/>
@@ -9615,7 +9611,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
@@ -9623,13 +9619,13 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M62" s="35"/>
       <c r="N62" s="35"/>
@@ -9640,7 +9636,7 @@
       <c r="S62" s="35"/>
       <c r="T62" s="35"/>
       <c r="U62" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V62" s="35"/>
       <c r="W62" s="35"/>
@@ -9660,7 +9656,7 @@
         <v>14</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
@@ -9668,13 +9664,13 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M63" s="35"/>
       <c r="N63" s="35"/>
@@ -9685,7 +9681,7 @@
       <c r="S63" s="35"/>
       <c r="T63" s="35"/>
       <c r="U63" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V63" s="35"/>
       <c r="W63" s="35"/>
@@ -9705,7 +9701,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
@@ -9713,13 +9709,13 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M64" s="35"/>
       <c r="N64" s="35"/>
@@ -9730,7 +9726,7 @@
       <c r="S64" s="35"/>
       <c r="T64" s="35"/>
       <c r="U64" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V64" s="35"/>
       <c r="W64" s="35"/>
@@ -9750,7 +9746,7 @@
         <v>16</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
@@ -9758,13 +9754,13 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M65" s="35"/>
       <c r="N65" s="35"/>
@@ -9775,7 +9771,7 @@
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -9795,7 +9791,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
@@ -9803,13 +9799,13 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -9820,7 +9816,7 @@
       <c r="S66" s="35"/>
       <c r="T66" s="35"/>
       <c r="U66" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V66" s="35"/>
       <c r="W66" s="35"/>
@@ -9840,7 +9836,7 @@
         <v>18</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
@@ -9848,13 +9844,13 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M67" s="35"/>
       <c r="N67" s="35"/>
@@ -9865,7 +9861,7 @@
       <c r="S67" s="35"/>
       <c r="T67" s="35"/>
       <c r="U67" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V67" s="35"/>
       <c r="W67" s="35"/>
@@ -9885,7 +9881,7 @@
         <v>19</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
@@ -9893,13 +9889,13 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
@@ -9910,7 +9906,7 @@
       <c r="S68" s="35"/>
       <c r="T68" s="35"/>
       <c r="U68" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V68" s="35"/>
       <c r="W68" s="35"/>
@@ -9930,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
@@ -9938,13 +9934,13 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -9955,7 +9951,7 @@
       <c r="S69" s="35"/>
       <c r="T69" s="35"/>
       <c r="U69" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V69" s="35"/>
       <c r="W69" s="35"/>
@@ -9975,7 +9971,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
@@ -9983,13 +9979,13 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I70" s="35"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
@@ -10000,7 +9996,7 @@
       <c r="S70" s="35"/>
       <c r="T70" s="35"/>
       <c r="U70" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V70" s="35"/>
       <c r="W70" s="35"/>
@@ -10020,7 +10016,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
@@ -10028,13 +10024,13 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I71" s="35"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M71" s="35"/>
       <c r="N71" s="35"/>
@@ -10045,7 +10041,7 @@
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35" t="s">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
@@ -10065,7 +10061,7 @@
         <v>23</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
@@ -10073,13 +10069,13 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I72" s="35"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M72" s="35"/>
       <c r="N72" s="35"/>
@@ -10090,7 +10086,7 @@
       <c r="S72" s="35"/>
       <c r="T72" s="35"/>
       <c r="U72" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V72" s="35"/>
       <c r="W72" s="35"/>
@@ -10110,7 +10106,7 @@
         <v>24</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
@@ -10118,13 +10114,13 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M73" s="35"/>
       <c r="N73" s="35"/>
@@ -10135,7 +10131,7 @@
       <c r="S73" s="35"/>
       <c r="T73" s="35"/>
       <c r="U73" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="V73" s="35"/>
       <c r="W73" s="35"/>
@@ -10155,7 +10151,7 @@
         <v>25</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
@@ -10163,13 +10159,13 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
@@ -10180,7 +10176,7 @@
       <c r="S74" s="35"/>
       <c r="T74" s="35"/>
       <c r="U74" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="V74" s="35"/>
       <c r="W74" s="35"/>
@@ -10200,7 +10196,7 @@
         <v>26</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
@@ -10208,13 +10204,13 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I75" s="35"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M75" s="35"/>
       <c r="N75" s="35"/>
@@ -10225,7 +10221,7 @@
       <c r="S75" s="35"/>
       <c r="T75" s="35"/>
       <c r="U75" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="V75" s="35"/>
       <c r="W75" s="35"/>
@@ -10245,7 +10241,7 @@
         <v>27</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
@@ -10253,13 +10249,13 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I76" s="35"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -10270,7 +10266,7 @@
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
       <c r="U76" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V76" s="38"/>
       <c r="W76" s="38"/>
@@ -10290,7 +10286,7 @@
         <v>28</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
@@ -10298,13 +10294,13 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I77" s="35"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
@@ -10315,7 +10311,7 @@
       <c r="S77" s="35"/>
       <c r="T77" s="35"/>
       <c r="U77" s="35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V77" s="35"/>
       <c r="W77" s="35"/>
@@ -10335,7 +10331,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
@@ -10343,13 +10339,13 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I78" s="35"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M78" s="35"/>
       <c r="N78" s="35"/>
@@ -10360,7 +10356,7 @@
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
@@ -10380,7 +10376,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
@@ -10388,13 +10384,13 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
@@ -10405,7 +10401,7 @@
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
@@ -10425,7 +10421,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
@@ -10433,13 +10429,13 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
@@ -10450,7 +10446,7 @@
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="V80" s="35"/>
       <c r="W80" s="35"/>
@@ -10470,7 +10466,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
@@ -10478,13 +10474,13 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="35" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
@@ -10495,7 +10491,7 @@
       <c r="S81" s="35"/>
       <c r="T81" s="35"/>
       <c r="U81" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V81" s="35"/>
       <c r="W81" s="35"/>
@@ -10515,7 +10511,7 @@
         <v>33</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
@@ -10523,13 +10519,13 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
@@ -10540,7 +10536,7 @@
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="V82" s="35"/>
       <c r="W82" s="35"/>
@@ -10560,7 +10556,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -10568,13 +10564,13 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I83" s="35"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="35" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M83" s="35"/>
       <c r="N83" s="35"/>
@@ -10585,7 +10581,7 @@
       <c r="S83" s="35"/>
       <c r="T83" s="35"/>
       <c r="U83" s="35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="V83" s="35"/>
       <c r="W83" s="35"/>
@@ -10605,7 +10601,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -10613,13 +10609,13 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="35" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
@@ -10630,7 +10626,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
       <c r="U84" s="35" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V84" s="35"/>
       <c r="W84" s="35"/>
@@ -11012,7 +11008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15:AD15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11077,7 +11075,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -11300,7 +11298,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -11308,7 +11306,7 @@
       <c r="K6" s="43"/>
       <c r="L6" s="44"/>
       <c r="M6" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
@@ -11328,7 +11326,7 @@
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
       <c r="AE6" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
@@ -11355,7 +11353,7 @@
       <c r="BB6" s="35"/>
       <c r="BC6" s="35"/>
       <c r="BD6" s="39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BE6" s="40"/>
       <c r="BF6" s="40"/>
@@ -11788,7 +11786,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
       <c r="G12" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -11796,7 +11794,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="44"/>
       <c r="M12" s="35" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -11807,7 +11805,7 @@
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -11818,7 +11816,7 @@
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
       <c r="AE12" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
@@ -11829,7 +11827,7 @@
       <c r="AL12" s="35"/>
       <c r="AM12" s="35"/>
       <c r="AN12" s="38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
@@ -11847,7 +11845,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
@@ -11884,13 +11882,13 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="41"/>
       <c r="G13" s="42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
@@ -11898,7 +11896,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
       <c r="M13" s="35" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -11909,7 +11907,7 @@
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
       <c r="V13" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -11920,7 +11918,7 @@
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF13" s="35"/>
       <c r="AG13" s="35"/>
@@ -11931,7 +11929,7 @@
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AO13" s="35"/>
       <c r="AP13" s="35"/>
@@ -11949,7 +11947,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
@@ -11992,7 +11990,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="41"/>
       <c r="G14" s="42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
@@ -12000,7 +11998,7 @@
       <c r="K14" s="43"/>
       <c r="L14" s="44"/>
       <c r="M14" s="35" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -12011,7 +12009,7 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -12022,7 +12020,7 @@
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF14" s="35"/>
       <c r="AG14" s="35"/>
@@ -12033,7 +12031,7 @@
       <c r="AL14" s="35"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
@@ -12051,7 +12049,7 @@
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="39" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
@@ -12094,7 +12092,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
       <c r="G15" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
@@ -12102,7 +12100,7 @@
       <c r="K15" s="43"/>
       <c r="L15" s="44"/>
       <c r="M15" s="35" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -12113,7 +12111,7 @@
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -12124,7 +12122,7 @@
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
@@ -12135,7 +12133,7 @@
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AO15" s="35"/>
       <c r="AP15" s="35"/>
@@ -12153,7 +12151,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="39" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BE15" s="40"/>
       <c r="BF15" s="40"/>
@@ -12190,13 +12188,13 @@
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="41"/>
       <c r="G16" s="42" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
@@ -12204,7 +12202,7 @@
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
       <c r="M16" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
@@ -12215,7 +12213,7 @@
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -12226,7 +12224,7 @@
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
       <c r="AE16" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF16" s="35"/>
       <c r="AG16" s="35"/>
@@ -12237,7 +12235,7 @@
       <c r="AL16" s="35"/>
       <c r="AM16" s="35"/>
       <c r="AN16" s="35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="AO16" s="35"/>
       <c r="AP16" s="35"/>
@@ -12255,7 +12253,7 @@
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BE16" s="40"/>
       <c r="BF16" s="40"/>
@@ -12298,7 +12296,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
       <c r="G17" s="42" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
@@ -12306,7 +12304,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="44"/>
       <c r="M17" s="35" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -12317,7 +12315,7 @@
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -12328,7 +12326,7 @@
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
       <c r="AE17" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
@@ -12339,7 +12337,7 @@
       <c r="AL17" s="35"/>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AO17" s="35"/>
       <c r="AP17" s="35"/>
@@ -12357,7 +12355,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="39" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="BE17" s="40"/>
       <c r="BF17" s="40"/>
@@ -12394,13 +12392,13 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="G18" s="42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -12408,7 +12406,7 @@
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
       <c r="M18" s="35" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -12419,7 +12417,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -12430,7 +12428,7 @@
       <c r="AC18" s="35"/>
       <c r="AD18" s="35"/>
       <c r="AE18" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF18" s="35"/>
       <c r="AG18" s="35"/>
@@ -12441,7 +12439,7 @@
       <c r="AL18" s="35"/>
       <c r="AM18" s="35"/>
       <c r="AN18" s="35" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AO18" s="35"/>
       <c r="AP18" s="35"/>
@@ -12459,7 +12457,7 @@
       <c r="BB18" s="35"/>
       <c r="BC18" s="35"/>
       <c r="BD18" s="39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BE18" s="40"/>
       <c r="BF18" s="40"/>
@@ -13040,7 +13038,7 @@
       <c r="E27" s="40"/>
       <c r="F27" s="41"/>
       <c r="G27" s="42" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
@@ -13048,7 +13046,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="44"/>
       <c r="M27" s="35" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
@@ -13062,7 +13060,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -13076,7 +13074,7 @@
       <c r="AI27" s="35"/>
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="35"/>
@@ -13097,7 +13095,7 @@
       <c r="BB27" s="35"/>
       <c r="BC27" s="35"/>
       <c r="BD27" s="39" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="BE27" s="40"/>
       <c r="BF27" s="40"/>
@@ -13127,7 +13125,7 @@
       <c r="CD27" s="40"/>
       <c r="CE27" s="41"/>
     </row>
-    <row r="28" spans="1:83" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37">
         <f xml:space="preserve"> $A27 + 1</f>
         <v>2</v>
@@ -13140,7 +13138,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="41"/>
       <c r="G28" s="42" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -13148,7 +13146,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="44"/>
       <c r="M28" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
@@ -13162,7 +13160,7 @@
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
@@ -13176,7 +13174,7 @@
       <c r="AI28" s="35"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="35"/>
@@ -13197,7 +13195,7 @@
       <c r="BB28" s="35"/>
       <c r="BC28" s="35"/>
       <c r="BD28" s="39" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="BE28" s="40"/>
       <c r="BF28" s="40"/>
@@ -13732,7 +13730,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="49" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -13744,7 +13742,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
@@ -13776,7 +13774,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="49" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -13788,7 +13786,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="50" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -14000,7 +13998,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -14017,82 +14015,82 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C3" s="20">
         <v>40</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="K3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -14460,10 +14458,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -14485,11 +14483,11 @@
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
       <c r="AB2" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="23"/>
       <c r="AD2" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AE2" s="23"/>
     </row>
@@ -14498,10 +14496,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -14529,10 +14527,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -14560,10 +14558,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -14585,7 +14583,7 @@
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="AB5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
@@ -14594,10 +14592,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>100</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -14619,7 +14617,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="AB6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
@@ -14628,10 +14626,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -14653,7 +14651,7 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="AB7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
@@ -14662,10 +14660,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -14687,7 +14685,7 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
       <c r="AB8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
@@ -14696,10 +14694,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -14721,7 +14719,7 @@
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
       <c r="AB9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
@@ -14730,10 +14728,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -14755,7 +14753,7 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="AB10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.2">
@@ -14764,10 +14762,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -14789,7 +14787,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="AB11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
@@ -14798,10 +14796,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>107</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -14823,7 +14821,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="AB12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
@@ -14832,10 +14830,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
@@ -14863,10 +14861,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -14894,10 +14892,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -14925,10 +14923,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -14956,10 +14954,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -14987,10 +14985,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
@@ -15018,10 +15016,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>115</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -15049,10 +15047,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -15080,10 +15078,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -15111,10 +15109,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
@@ -15142,10 +15140,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -15173,10 +15171,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -15204,10 +15202,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -15235,10 +15233,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -15266,10 +15264,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -15297,10 +15295,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -15328,10 +15326,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -15359,10 +15357,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -15390,10 +15388,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -15421,10 +15419,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
@@ -15452,10 +15450,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -15483,10 +15481,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -15514,10 +15512,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>138</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
@@ -15545,10 +15543,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
@@ -15576,10 +15574,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
@@ -15607,10 +15605,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -15638,10 +15636,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -15669,10 +15667,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -15700,10 +15698,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -15731,10 +15729,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
@@ -15762,10 +15760,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -15794,10 +15792,10 @@
         <v>42</v>
       </c>
       <c r="C44" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
@@ -15826,10 +15824,10 @@
         <v>43</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
@@ -15858,10 +15856,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -15890,10 +15888,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
@@ -15922,10 +15920,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
@@ -15954,10 +15952,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879415F6-097E-44CE-AEFA-40C45A9BBE63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04081F31-C608-4678-B58B-6B81E02C0A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1207,19 +1207,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>書込み不可。ファイルパス表示用。</t>
-    <rPh sb="0" eb="2">
-      <t>カキコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Button</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1474,18 +1461,6 @@
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SELECT COUNT(*) + 1 AS LENGTH
-FROM Personnel
-WHERE Authority = "権限区分";</t>
-    <rPh sb="64" eb="66">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>クブン</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -2354,22 +2329,25 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>入力制限なし。半角10文字分</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ブン</t>
-    </rPh>
+    <t>PersonnelId_Label</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>PersonnelId_Text</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>string PersonnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CreatePersonnelId</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>INSERT INTO Personnel
+VALUES
+(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.personnelId, data.password, data.address1, data.address,2 data.area1, data.area2, data.note);</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -2377,7 +2355,7 @@
 システム管理者："SYS" +  (count(*) + 1)  "SYS0000001"
 店舗責任者："STR" + (count(*) + 1)         "STR0000001"
 配達人員："USR" + (count(*) + 1)            "USR0000001"
-権限文字3文字 + カウント（左0埋め　4文字）</t>
+権限文字3文字 + カウント（左0埋め　7文字）</t>
     <rPh sb="12" eb="14">
       <t>シュトク</t>
     </rPh>
@@ -2402,25 +2380,54 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>PersonnelId_Label</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>PersonnelId_Text</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>string PersonnelId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>CreatePersonnelId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>INSERT INTO Personnel
-VALUES
-(data.name, data.birthday, data.age, data.gender, data.telephone, data.mail, data.authority, data.personnelId, data.password, data.address1, data.address,2 data.area1, data.area2, data.note);</t>
+    <t>入力不可。自動割り当て項目</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力不可。選択したファイルパスを表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(authority) + 1,authority AS LENGTH
+FROM Personnel
+WHERE authority = "権限区分"
+GROUP BY authority;</t>
+    <rPh sb="82" eb="84">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>クブン</t>
+    </rPh>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -8273,7 +8280,7 @@
       <c r="AJ41" s="29"/>
       <c r="AK41" s="29"/>
       <c r="AL41" s="33">
-        <v>43924</v>
+        <v>43950</v>
       </c>
       <c r="AM41" s="33"/>
       <c r="AN41" s="33"/>
@@ -8852,7 +8859,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -9386,7 +9393,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
@@ -9664,7 +9671,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
@@ -9771,7 +9778,7 @@
       <c r="S65" s="35"/>
       <c r="T65" s="35"/>
       <c r="U65" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V65" s="35"/>
       <c r="W65" s="35"/>
@@ -9985,7 +9992,7 @@
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M70" s="35"/>
       <c r="N70" s="35"/>
@@ -10016,7 +10023,7 @@
         <v>22</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
@@ -10041,7 +10048,7 @@
       <c r="S71" s="35"/>
       <c r="T71" s="35"/>
       <c r="U71" s="35" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="V71" s="35"/>
       <c r="W71" s="35"/>
@@ -10331,7 +10338,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
@@ -10356,7 +10363,7 @@
       <c r="S78" s="35"/>
       <c r="T78" s="35"/>
       <c r="U78" s="35" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="V78" s="35"/>
       <c r="W78" s="35"/>
@@ -10376,7 +10383,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
@@ -10384,13 +10391,13 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I79" s="35"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M79" s="35"/>
       <c r="N79" s="35"/>
@@ -10401,7 +10408,7 @@
       <c r="S79" s="35"/>
       <c r="T79" s="35"/>
       <c r="U79" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V79" s="35"/>
       <c r="W79" s="35"/>
@@ -10421,7 +10428,7 @@
         <v>31</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
@@ -10429,13 +10436,13 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I80" s="35"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M80" s="35"/>
       <c r="N80" s="35"/>
@@ -10446,7 +10453,7 @@
       <c r="S80" s="35"/>
       <c r="T80" s="35"/>
       <c r="U80" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V80" s="35"/>
       <c r="W80" s="35"/>
@@ -10466,7 +10473,7 @@
         <v>32</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
@@ -10480,7 +10487,7 @@
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M81" s="35"/>
       <c r="N81" s="35"/>
@@ -10511,7 +10518,7 @@
         <v>33</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
@@ -10519,7 +10526,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
@@ -10536,7 +10543,7 @@
       <c r="S82" s="35"/>
       <c r="T82" s="35"/>
       <c r="U82" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V82" s="35"/>
       <c r="W82" s="35"/>
@@ -10556,7 +10563,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
@@ -10564,13 +10571,13 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I83" s="35"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M83" s="35"/>
       <c r="N83" s="35"/>
@@ -10581,7 +10588,7 @@
       <c r="S83" s="35"/>
       <c r="T83" s="35"/>
       <c r="U83" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V83" s="35"/>
       <c r="W83" s="35"/>
@@ -10601,7 +10608,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
@@ -10609,13 +10616,13 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I84" s="35"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M84" s="35"/>
       <c r="N84" s="35"/>
@@ -10626,7 +10633,7 @@
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
       <c r="U84" s="35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="V84" s="35"/>
       <c r="W84" s="35"/>
@@ -11008,8 +11015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:AD15"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK28" sqref="AK28:BC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11075,7 +11082,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -11298,7 +11305,7 @@
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43"/>
@@ -11306,7 +11313,7 @@
       <c r="K6" s="43"/>
       <c r="L6" s="44"/>
       <c r="M6" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N6" s="35"/>
       <c r="O6" s="35"/>
@@ -11326,7 +11333,7 @@
       <c r="AC6" s="35"/>
       <c r="AD6" s="35"/>
       <c r="AE6" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
@@ -11353,7 +11360,7 @@
       <c r="BB6" s="35"/>
       <c r="BC6" s="35"/>
       <c r="BD6" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BE6" s="40"/>
       <c r="BF6" s="40"/>
@@ -11786,7 +11793,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
       <c r="G12" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -11794,7 +11801,7 @@
       <c r="K12" s="43"/>
       <c r="L12" s="44"/>
       <c r="M12" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -11805,7 +11812,7 @@
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
       <c r="V12" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
@@ -11816,7 +11823,7 @@
       <c r="AC12" s="35"/>
       <c r="AD12" s="35"/>
       <c r="AE12" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF12" s="35"/>
       <c r="AG12" s="35"/>
@@ -11827,7 +11834,7 @@
       <c r="AL12" s="35"/>
       <c r="AM12" s="35"/>
       <c r="AN12" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO12" s="38"/>
       <c r="AP12" s="38"/>
@@ -11845,7 +11852,7 @@
       <c r="BB12" s="38"/>
       <c r="BC12" s="38"/>
       <c r="BD12" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
@@ -11882,13 +11889,13 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="41"/>
       <c r="G13" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
@@ -11896,7 +11903,7 @@
       <c r="K13" s="43"/>
       <c r="L13" s="44"/>
       <c r="M13" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -11907,7 +11914,7 @@
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
       <c r="V13" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
@@ -11918,7 +11925,7 @@
       <c r="AC13" s="35"/>
       <c r="AD13" s="35"/>
       <c r="AE13" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" s="35"/>
       <c r="AG13" s="35"/>
@@ -11929,7 +11936,7 @@
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
       <c r="AN13" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AO13" s="35"/>
       <c r="AP13" s="35"/>
@@ -11947,7 +11954,7 @@
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
@@ -11990,7 +11997,7 @@
       <c r="E14" s="40"/>
       <c r="F14" s="41"/>
       <c r="G14" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
@@ -11998,7 +12005,7 @@
       <c r="K14" s="43"/>
       <c r="L14" s="44"/>
       <c r="M14" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -12009,7 +12016,7 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -12020,7 +12027,7 @@
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF14" s="35"/>
       <c r="AG14" s="35"/>
@@ -12031,7 +12038,7 @@
       <c r="AL14" s="35"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
@@ -12049,7 +12056,7 @@
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="39" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
@@ -12092,7 +12099,7 @@
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
       <c r="G15" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
@@ -12100,7 +12107,7 @@
       <c r="K15" s="43"/>
       <c r="L15" s="44"/>
       <c r="M15" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
@@ -12111,7 +12118,7 @@
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
       <c r="V15" s="35" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -12122,7 +12129,7 @@
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF15" s="35"/>
       <c r="AG15" s="35"/>
@@ -12133,7 +12140,7 @@
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AO15" s="35"/>
       <c r="AP15" s="35"/>
@@ -12151,7 +12158,7 @@
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="BE15" s="40"/>
       <c r="BF15" s="40"/>
@@ -12188,13 +12195,13 @@
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="41"/>
       <c r="G16" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
@@ -12202,7 +12209,7 @@
       <c r="K16" s="43"/>
       <c r="L16" s="44"/>
       <c r="M16" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N16" s="35"/>
       <c r="O16" s="35"/>
@@ -12213,7 +12220,7 @@
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
       <c r="V16" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
@@ -12224,7 +12231,7 @@
       <c r="AC16" s="35"/>
       <c r="AD16" s="35"/>
       <c r="AE16" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF16" s="35"/>
       <c r="AG16" s="35"/>
@@ -12235,7 +12242,7 @@
       <c r="AL16" s="35"/>
       <c r="AM16" s="35"/>
       <c r="AN16" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO16" s="35"/>
       <c r="AP16" s="35"/>
@@ -12253,7 +12260,7 @@
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BE16" s="40"/>
       <c r="BF16" s="40"/>
@@ -12296,7 +12303,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
       <c r="G17" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
@@ -12304,7 +12311,7 @@
       <c r="K17" s="43"/>
       <c r="L17" s="44"/>
       <c r="M17" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N17" s="35"/>
       <c r="O17" s="35"/>
@@ -12315,7 +12322,7 @@
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
       <c r="V17" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
@@ -12326,7 +12333,7 @@
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
       <c r="AE17" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF17" s="35"/>
       <c r="AG17" s="35"/>
@@ -12337,7 +12344,7 @@
       <c r="AL17" s="35"/>
       <c r="AM17" s="35"/>
       <c r="AN17" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AO17" s="35"/>
       <c r="AP17" s="35"/>
@@ -12355,7 +12362,7 @@
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BE17" s="40"/>
       <c r="BF17" s="40"/>
@@ -12392,13 +12399,13 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="G18" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -12406,7 +12413,7 @@
       <c r="K18" s="43"/>
       <c r="L18" s="44"/>
       <c r="M18" s="35" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
@@ -12417,7 +12424,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
@@ -12428,7 +12435,7 @@
       <c r="AC18" s="35"/>
       <c r="AD18" s="35"/>
       <c r="AE18" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF18" s="35"/>
       <c r="AG18" s="35"/>
@@ -12439,7 +12446,7 @@
       <c r="AL18" s="35"/>
       <c r="AM18" s="35"/>
       <c r="AN18" s="35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AO18" s="35"/>
       <c r="AP18" s="35"/>
@@ -12457,7 +12464,7 @@
       <c r="BB18" s="35"/>
       <c r="BC18" s="35"/>
       <c r="BD18" s="39" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BE18" s="40"/>
       <c r="BF18" s="40"/>
@@ -13026,7 +13033,7 @@
       <c r="CD26" s="46"/>
       <c r="CE26" s="47"/>
     </row>
-    <row r="27" spans="1:83" ht="59.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37">
         <v>1</v>
       </c>
@@ -13038,7 +13045,7 @@
       <c r="E27" s="40"/>
       <c r="F27" s="41"/>
       <c r="G27" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
@@ -13046,7 +13053,7 @@
       <c r="K27" s="43"/>
       <c r="L27" s="44"/>
       <c r="M27" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N27" s="35"/>
       <c r="O27" s="35"/>
@@ -13060,7 +13067,7 @@
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Z27" s="35"/>
       <c r="AA27" s="35"/>
@@ -13074,7 +13081,7 @@
       <c r="AI27" s="35"/>
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AL27" s="35"/>
       <c r="AM27" s="35"/>
@@ -13095,7 +13102,7 @@
       <c r="BB27" s="35"/>
       <c r="BC27" s="35"/>
       <c r="BD27" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BE27" s="40"/>
       <c r="BF27" s="40"/>
@@ -13138,7 +13145,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="41"/>
       <c r="G28" s="42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -13146,7 +13153,7 @@
       <c r="K28" s="43"/>
       <c r="L28" s="44"/>
       <c r="M28" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N28" s="35"/>
       <c r="O28" s="35"/>
@@ -13160,7 +13167,7 @@
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Z28" s="35"/>
       <c r="AA28" s="35"/>
@@ -13174,7 +13181,7 @@
       <c r="AI28" s="35"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AL28" s="35"/>
       <c r="AM28" s="35"/>
@@ -13195,7 +13202,7 @@
       <c r="BB28" s="35"/>
       <c r="BC28" s="35"/>
       <c r="BD28" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BE28" s="40"/>
       <c r="BF28" s="40"/>
@@ -13677,7 +13684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E62B2D8-9038-4DC1-A756-35094BBABB32}">
   <dimension ref="A2:AI7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -13730,7 +13737,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -13742,7 +13749,7 @@
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N3" s="51"/>
       <c r="O3" s="51"/>
@@ -13767,14 +13774,14 @@
       <c r="AH3" s="51"/>
       <c r="AI3" s="51"/>
     </row>
-    <row r="4" spans="1:35" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <f xml:space="preserve"> $A3 + 1</f>
         <v>2</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="49" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -13786,7 +13793,7 @@
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="50" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
@@ -13998,7 +14005,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -14015,73 +14022,73 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>206</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C3" s="20">
         <v>40</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>215</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>217</v>
       </c>
       <c r="K3" s="27" t="s">
         <v>101</v>
@@ -14090,7 +14097,7 @@
         <v>108</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04081F31-C608-4678-B58B-6B81E02C0A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45EA0E8-8675-4D9F-AFC6-7EDB9B32DF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -2955,14 +2949,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>231270</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>68800</xdr:rowOff>
+      <xdr:rowOff>49750</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2977,9 +2971,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="167640"/>
-          <a:ext cx="10381110" cy="5098000"/>
-          <a:chOff x="0" y="167640"/>
+          <a:off x="0" y="152400"/>
+          <a:ext cx="10381110" cy="5094190"/>
+          <a:chOff x="0" y="149026"/>
           <a:chExt cx="10384920" cy="5092920"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -2996,7 +2990,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="0" y="167640"/>
+            <a:off x="0" y="149026"/>
             <a:ext cx="10384920" cy="5092920"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3228,16 +3222,25 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="3B3838"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>入力項目</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -3558,16 +3561,25 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
-                  <a:srgbClr val="3B3838"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
               </a:rPr>
               <a:t>入力項目</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-              <a:latin typeface="Times New Roman"/>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -5306,13 +5318,13 @@
               </a:lnSpc>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="3B3838"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>入力項目</a:t>
+              <a:t>テキスト項目</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
@@ -6070,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11015,9 +11027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28:BC28"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -11293,7 +11303,7 @@
       <c r="CD5" s="46"/>
       <c r="CE5" s="47"/>
     </row>
-    <row r="6" spans="1:83" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>1</v>
       </c>
@@ -11984,7 +11994,7 @@
       <c r="CD13" s="40"/>
       <c r="CE13" s="41"/>
     </row>
-    <row r="14" spans="1:83" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" ht="55.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" ref="A14:A23" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
@@ -13684,7 +13694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E62B2D8-9038-4DC1-A756-35094BBABB32}">
   <dimension ref="A2:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14457,7 +14467,7 @@
   <cols>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.2">

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_3人員登録画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45EA0E8-8675-4D9F-AFC6-7EDB9B32DF3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC4C28-D917-419E-918A-CADAF98F94DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2740,14 +2740,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2783,10 +2783,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6082,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8829,261 +8829,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A41:AF89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63:K63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37"/>
-      <c r="AB42" s="37"/>
-      <c r="AC42" s="37"/>
-      <c r="AD42" s="37"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
-      <c r="AA43" s="37"/>
-      <c r="AB43" s="37"/>
-      <c r="AC43" s="37"/>
-      <c r="AD43" s="37"/>
-      <c r="AE43" s="37"/>
-      <c r="AF43" s="37"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38"/>
+      <c r="AE43" s="38"/>
+      <c r="AF43" s="38"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
-      <c r="AA44" s="37"/>
-      <c r="AB44" s="37"/>
-      <c r="AC44" s="37"/>
-      <c r="AD44" s="37"/>
-      <c r="AE44" s="37"/>
-      <c r="AF44" s="37"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38"/>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="38"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="37"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38"/>
+      <c r="AE45" s="38"/>
+      <c r="AF45" s="38"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
-      <c r="AA46" s="37"/>
-      <c r="AB46" s="37"/>
-      <c r="AC46" s="37"/>
-      <c r="AD46" s="37"/>
-      <c r="AE46" s="37"/>
-      <c r="AF46" s="37"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="38"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="38"/>
+      <c r="AD46" s="38"/>
+      <c r="AE46" s="38"/>
+      <c r="AF46" s="38"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36" t="s">
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36" t="s">
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36" t="s">
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
-      <c r="AE49" s="36"/>
-      <c r="AF49" s="36"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+      <c r="AA49" s="37"/>
+      <c r="AB49" s="37"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="37"/>
+      <c r="AE49" s="37"/>
+      <c r="AF49" s="37"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
@@ -10284,20 +10286,20 @@
       <c r="R76" s="35"/>
       <c r="S76" s="35"/>
       <c r="T76" s="35"/>
-      <c r="U76" s="38" t="s">
+      <c r="U76" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="V76" s="38"/>
-      <c r="W76" s="38"/>
-      <c r="X76" s="38"/>
-      <c r="Y76" s="38"/>
-      <c r="Z76" s="38"/>
-      <c r="AA76" s="38"/>
-      <c r="AB76" s="38"/>
-      <c r="AC76" s="38"/>
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="38"/>
-      <c r="AF76" s="38"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
+      <c r="Z76" s="36"/>
+      <c r="AA76" s="36"/>
+      <c r="AB76" s="36"/>
+      <c r="AC76" s="36"/>
+      <c r="AD76" s="36"/>
+      <c r="AE76" s="36"/>
+      <c r="AF76" s="36"/>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
@@ -10846,104 +10848,50 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:T51"/>
     <mergeCell ref="U51:AF51"/>
     <mergeCell ref="B58:G58"/>
@@ -10968,50 +10916,104 @@
     <mergeCell ref="U55:AF55"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -11032,122 +11034,122 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -11207,10 +11209,10 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
@@ -11225,53 +11227,53 @@
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
       <c r="L5" s="47"/>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36" t="s">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
       <c r="BD5" s="45" t="s">
         <v>18</v>
       </c>
@@ -11304,10 +11306,10 @@
       <c r="CE5" s="47"/>
     </row>
     <row r="6" spans="1:83" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
+      <c r="A6" s="38">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="39" t="s">
         <v>21</v>
       </c>
@@ -11401,11 +11403,11 @@
       <c r="CE6" s="41"/>
     </row>
     <row r="7" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="38">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -11489,11 +11491,11 @@
       <c r="CE7" s="41"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="A8" s="38">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -11691,10 +11693,10 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="45" t="s">
         <v>19</v>
       </c>
@@ -11709,57 +11711,57 @@
       <c r="J11" s="46"/>
       <c r="K11" s="46"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36" t="s">
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36" t="s">
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="36"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="37"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="37"/>
+      <c r="BA11" s="37"/>
+      <c r="BB11" s="37"/>
+      <c r="BC11" s="37"/>
       <c r="BD11" s="45" t="s">
         <v>18</v>
       </c>
@@ -11792,10 +11794,10 @@
       <c r="CE11" s="47"/>
     </row>
     <row r="12" spans="1:83" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
+      <c r="A12" s="38">
         <v>1</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="39" t="s">
         <v>22</v>
       </c>
@@ -11843,24 +11845,24 @@
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
       <c r="AM12" s="35"/>
-      <c r="AN12" s="38" t="s">
+      <c r="AN12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
       <c r="BD12" s="39" t="s">
         <v>227</v>
       </c>
@@ -11893,11 +11895,11 @@
       <c r="CE12" s="41"/>
     </row>
     <row r="13" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="38">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="39" t="s">
         <v>172</v>
       </c>
@@ -11995,11 +11997,11 @@
       <c r="CE13" s="41"/>
     </row>
     <row r="14" spans="1:83" ht="55.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="A14" s="38">
         <f t="shared" ref="A14:A23" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="39" t="s">
         <v>22</v>
       </c>
@@ -12097,11 +12099,11 @@
       <c r="CE14" s="41"/>
     </row>
     <row r="15" spans="1:83" ht="258.60000000000002" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="39" t="s">
         <v>22</v>
       </c>
@@ -12199,11 +12201,11 @@
       <c r="CE15" s="41"/>
     </row>
     <row r="16" spans="1:83" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="39" t="s">
         <v>186</v>
       </c>
@@ -12301,11 +12303,11 @@
       <c r="CE16" s="41"/>
     </row>
     <row r="17" spans="1:83" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
@@ -12403,11 +12405,11 @@
       <c r="CE17" s="41"/>
     </row>
     <row r="18" spans="1:83" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="39" t="s">
         <v>196</v>
       </c>
@@ -12505,11 +12507,11 @@
       <c r="CE18" s="41"/>
     </row>
     <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -12593,11 +12595,11 @@
       <c r="CE19" s="41"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="37">
+      <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -12681,11 +12683,11 @@
       <c r="CE20" s="41"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -12769,11 +12771,11 @@
       <c r="CE21" s="41"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="37">
+      <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -12857,11 +12859,11 @@
       <c r="CE22" s="41"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -12945,10 +12947,10 @@
       <c r="CE23" s="41"/>
     </row>
     <row r="26" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="45" t="s">
         <v>19</v>
       </c>
@@ -12963,55 +12965,55 @@
       <c r="J26" s="46"/>
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
-      <c r="M26" s="36" t="s">
+      <c r="M26" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36" t="s">
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
-      <c r="AD26" s="36"/>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="36" t="s">
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AL26" s="36"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="36"/>
-      <c r="AO26" s="36"/>
-      <c r="AP26" s="36"/>
-      <c r="AQ26" s="36"/>
-      <c r="AR26" s="36"/>
-      <c r="AS26" s="36"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="36"/>
-      <c r="AV26" s="36"/>
-      <c r="AW26" s="36"/>
-      <c r="AX26" s="36"/>
-      <c r="AY26" s="36"/>
-      <c r="AZ26" s="36"/>
-      <c r="BA26" s="36"/>
-      <c r="BB26" s="36"/>
-      <c r="BC26" s="36"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+      <c r="AQ26" s="37"/>
+      <c r="AR26" s="37"/>
+      <c r="AS26" s="37"/>
+      <c r="AT26" s="37"/>
+      <c r="AU26" s="37"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="37"/>
+      <c r="AX26" s="37"/>
+      <c r="AY26" s="37"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="37"/>
+      <c r="BB26" s="37"/>
+      <c r="BC26" s="37"/>
       <c r="BD26" s="45" t="s">
         <v>18</v>
       </c>
@@ -13044,10 +13046,10 @@
       <c r="CE26" s="47"/>
     </row>
     <row r="27" spans="1:83" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
+      <c r="A27" s="38">
         <v>1</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="39" t="s">
         <v>22</v>
       </c>
@@ -13143,11 +13145,11 @@
       <c r="CE27" s="41"/>
     </row>
     <row r="28" spans="1:83" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37">
+      <c r="A28" s="38">
         <f xml:space="preserve"> $A27 + 1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
@@ -13243,11 +13245,11 @@
       <c r="CE28" s="41"/>
     </row>
     <row r="29" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="38">
         <f t="shared" ref="A29:A31" si="1" xml:space="preserve"> $A28 + 1</f>
         <v>3</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="39"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -13331,11 +13333,11 @@
       <c r="CE29" s="41"/>
     </row>
     <row r="30" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A30" s="37">
+      <c r="A30" s="38">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -13419,11 +13421,11 @@
       <c r="CE30" s="41"/>
     </row>
     <row r="31" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="38">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="39"/>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -13508,15 +13510,145 @@
     </row>
   </sheetData>
   <mergeCells count="172">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="V21:AD21"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="AK31:BC31"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="BD26:CE26"/>
+    <mergeCell ref="BD27:CE27"/>
+    <mergeCell ref="BD28:CE28"/>
+    <mergeCell ref="BD29:CE29"/>
+    <mergeCell ref="BD30:CE30"/>
+    <mergeCell ref="BD31:CE31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="Y28:AJ28"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="AE21:AM21"/>
+    <mergeCell ref="AN21:BC21"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="AN22:BC22"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="AK30:BC30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:X30"/>
+    <mergeCell ref="Y30:AJ30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
+    <mergeCell ref="AK29:BC29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="M26:X26"/>
+    <mergeCell ref="Y26:AJ26"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="V23:AD23"/>
+    <mergeCell ref="AE23:AM23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="AK26:BC26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="AN23:BC23"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:BC2"/>
     <mergeCell ref="M11:U11"/>
     <mergeCell ref="V11:AD11"/>
@@ -13541,145 +13673,15 @@
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="M5:AD5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="M26:X26"/>
-    <mergeCell ref="Y26:AJ26"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="V23:AD23"/>
-    <mergeCell ref="AE23:AM23"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="AK26:BC26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="AN23:BC23"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="AK30:BC30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:X30"/>
-    <mergeCell ref="Y30:AJ30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AJ29"/>
-    <mergeCell ref="AK29:BC29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
-    <mergeCell ref="AN22:BC22"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="AK31:BC31"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="BD26:CE26"/>
-    <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="BD28:CE28"/>
-    <mergeCell ref="BD29:CE29"/>
-    <mergeCell ref="BD30:CE30"/>
-    <mergeCell ref="BD31:CE31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -13699,47 +13701,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
     </row>
     <row r="3" spans="1:35" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
@@ -13758,31 +13760,31 @@
       <c r="J3" s="49"/>
       <c r="K3" s="49"/>
       <c r="L3" s="49"/>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
     </row>
     <row r="4" spans="1:35" ht="53.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
@@ -13802,31 +13804,31 @@
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
@@ -13844,29 +13846,29 @@
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
@@ -13884,29 +13886,29 @@
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
-      <c r="AD6" s="50"/>
-      <c r="AE6" s="50"/>
-      <c r="AF6" s="50"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
@@ -13924,38 +13926,32 @@
       <c r="J7" s="49"/>
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -13968,6 +13964,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
